--- a/布局.xlsx
+++ b/布局.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\study\BHW\RAYLIBsnake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA003211-E3A5-4198-82CD-EEEEA58B27D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0637BFC-70FA-433B-B0E9-0692AA25EEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6400" yWindow="1020" windowWidth="19200" windowHeight="9970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="game" sheetId="1" r:id="rId1"/>
-    <sheet name="menu" sheetId="3" r:id="rId2"/>
-    <sheet name="over" sheetId="4" r:id="rId3"/>
+    <sheet name="over" sheetId="4" r:id="rId2"/>
+    <sheet name="menu" sheetId="3" r:id="rId3"/>
+    <sheet name="setconfig" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +59,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +102,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -129,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -150,6 +175,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2119,11 +2150,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7BBFA1-7ACD-40BC-A959-A3BA280EBF7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68335188-50A9-4EBD-AC6A-D97222079D21}">
   <dimension ref="A1:AO226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2433,9 +2464,9 @@
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
     </row>
     <row r="6" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -2478,9 +2509,9 @@
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
     </row>
     <row r="7" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -2523,9 +2554,9 @@
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="10"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
     </row>
     <row r="8" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -2543,34 +2574,34 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
       <c r="AI8" s="11"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="10"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
     </row>
     <row r="9" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -2584,38 +2615,38 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
       <c r="AJ9" s="11"/>
       <c r="AK9" s="11"/>
       <c r="AL9" s="10"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
     </row>
     <row r="10" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -2629,38 +2660,38 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
       <c r="AL10" s="10"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
     </row>
     <row r="11" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -2674,38 +2705,38 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
     </row>
     <row r="12" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -2719,38 +2750,38 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
       <c r="AL12" s="10"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
     </row>
     <row r="13" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -2764,38 +2795,38 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
       <c r="AL13" s="10"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
     </row>
     <row r="14" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -2809,38 +2840,38 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
     </row>
     <row r="15" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -2854,38 +2885,38 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
     </row>
     <row r="16" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -2899,38 +2930,38 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
       <c r="AJ16" s="10"/>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
     </row>
     <row r="17" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -2944,38 +2975,38 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
       <c r="AJ17" s="10"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="10"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
     </row>
     <row r="18" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -2989,38 +3020,38 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
       <c r="AJ18" s="10"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="10"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
     </row>
     <row r="19" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -3034,38 +3065,38 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
       <c r="AJ19" s="10"/>
       <c r="AK19" s="10"/>
       <c r="AL19" s="10"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
     </row>
     <row r="20" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -3083,34 +3114,34 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
       <c r="AK20" s="10"/>
       <c r="AL20" s="10"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
     </row>
     <row r="21" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -3128,34 +3159,34 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
       <c r="AK21" s="10"/>
       <c r="AL21" s="10"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
     </row>
     <row r="22" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -3173,34 +3204,34 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
       <c r="AK22" s="10"/>
       <c r="AL22" s="10"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
     </row>
     <row r="23" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -3218,25 +3249,25 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
       <c r="AI23" s="10"/>
@@ -3464,13 +3495,13 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
     </row>
     <row r="29" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -3809,11 +3840,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68335188-50A9-4EBD-AC6A-D97222079D21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7BBFA1-7ACD-40BC-A959-A3BA280EBF7C}">
   <dimension ref="A1:AO226"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4123,9 +4154,9 @@
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
     </row>
     <row r="6" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -4168,9 +4199,9 @@
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
     </row>
     <row r="7" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -4213,9 +4244,9 @@
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
     </row>
     <row r="8" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -4233,34 +4264,34 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
       <c r="AI8" s="11"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
     </row>
     <row r="9" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -4274,38 +4305,38 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
       <c r="AJ9" s="11"/>
       <c r="AK9" s="11"/>
       <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
     </row>
     <row r="10" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -4319,38 +4350,38 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
       <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
     </row>
     <row r="11" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -4364,38 +4395,38 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
     </row>
     <row r="12" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -4409,38 +4440,38 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
       <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
     </row>
     <row r="13" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -4454,38 +4485,38 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
       <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
     </row>
     <row r="14" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -4499,38 +4530,38 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
     </row>
     <row r="15" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -4544,38 +4575,38 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
     </row>
     <row r="16" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -4589,38 +4620,38 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
       <c r="AJ16" s="10"/>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
     </row>
     <row r="17" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -4634,38 +4665,38 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
       <c r="AJ17" s="10"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="10"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
     </row>
     <row r="18" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -4679,38 +4710,38 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
       <c r="AJ18" s="10"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
     </row>
     <row r="19" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -4724,38 +4755,38 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
       <c r="AK19" s="10"/>
       <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="10"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
     </row>
     <row r="20" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -4773,34 +4804,34 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
       <c r="AK20" s="10"/>
       <c r="AL20" s="10"/>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="10"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
     </row>
     <row r="21" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -4818,34 +4849,34 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
       <c r="AK21" s="10"/>
       <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
     </row>
     <row r="22" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -4863,34 +4894,34 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
       <c r="AK22" s="10"/>
       <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
     </row>
     <row r="23" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -4908,25 +4939,25 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
       <c r="AI23" s="10"/>
@@ -5154,13 +5185,13 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
     </row>
     <row r="29" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -5496,4 +5527,2318 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBB4368-9FC8-45DD-BD16-F6864E7B8507}">
+  <dimension ref="A1:BM226"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AN10" sqref="AG10:AN10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.9140625" style="3" customWidth="1"/>
+    <col min="2" max="61" width="4.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2">
+        <v>160</v>
+      </c>
+      <c r="F1" s="2">
+        <v>200</v>
+      </c>
+      <c r="G1" s="2">
+        <v>240</v>
+      </c>
+      <c r="H1" s="2">
+        <v>280</v>
+      </c>
+      <c r="I1" s="2">
+        <v>320</v>
+      </c>
+      <c r="J1" s="2">
+        <v>360</v>
+      </c>
+      <c r="K1" s="2">
+        <v>400</v>
+      </c>
+      <c r="L1" s="2">
+        <v>440</v>
+      </c>
+      <c r="M1" s="2">
+        <v>480</v>
+      </c>
+      <c r="N1" s="2">
+        <v>520</v>
+      </c>
+      <c r="O1" s="2">
+        <v>560</v>
+      </c>
+      <c r="P1" s="2">
+        <v>600</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>640</v>
+      </c>
+      <c r="R1" s="2">
+        <v>680</v>
+      </c>
+      <c r="S1" s="2">
+        <v>720</v>
+      </c>
+      <c r="T1" s="2">
+        <v>760</v>
+      </c>
+      <c r="U1" s="2">
+        <v>800</v>
+      </c>
+      <c r="V1" s="2">
+        <v>840</v>
+      </c>
+      <c r="W1" s="2">
+        <v>880</v>
+      </c>
+      <c r="X1" s="2">
+        <v>920</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>960</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>1040</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>1080</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>1120</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>1160</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>1240</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>1280</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>1320</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>1360</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>1400</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>1440</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>1480</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>1520</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>1560</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+    </row>
+    <row r="3" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>80</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+    </row>
+    <row r="4" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>120</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="16"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="16"/>
+      <c r="BJ4" s="16"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+    </row>
+    <row r="5" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>160</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="16"/>
+      <c r="BG5" s="16"/>
+      <c r="BH5" s="16"/>
+      <c r="BI5" s="16"/>
+      <c r="BJ5" s="16"/>
+      <c r="BK5" s="16"/>
+      <c r="BL5" s="16"/>
+      <c r="BM5" s="16"/>
+    </row>
+    <row r="6" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>200</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="16"/>
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="16"/>
+      <c r="BG6" s="16"/>
+      <c r="BH6" s="16"/>
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="16"/>
+      <c r="BK6" s="16"/>
+      <c r="BL6" s="16"/>
+      <c r="BM6" s="16"/>
+    </row>
+    <row r="7" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>240</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="16"/>
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16"/>
+      <c r="BM7" s="16"/>
+    </row>
+    <row r="8" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>280</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="16"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="16"/>
+      <c r="BM8" s="16"/>
+    </row>
+    <row r="9" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>320</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+    </row>
+    <row r="10" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>360</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+      <c r="BI10" s="16"/>
+      <c r="BJ10" s="16"/>
+      <c r="BK10" s="16"/>
+      <c r="BL10" s="16"/>
+      <c r="BM10" s="16"/>
+    </row>
+    <row r="11" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>400</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="16"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="16"/>
+      <c r="BF11" s="16"/>
+      <c r="BG11" s="16"/>
+      <c r="BH11" s="16"/>
+      <c r="BI11" s="16"/>
+      <c r="BJ11" s="16"/>
+      <c r="BK11" s="16"/>
+      <c r="BL11" s="16"/>
+      <c r="BM11" s="16"/>
+    </row>
+    <row r="12" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>440</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="16"/>
+      <c r="BG12" s="16"/>
+      <c r="BH12" s="16"/>
+      <c r="BI12" s="16"/>
+      <c r="BJ12" s="16"/>
+      <c r="BK12" s="16"/>
+      <c r="BL12" s="16"/>
+      <c r="BM12" s="16"/>
+    </row>
+    <row r="13" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>480</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="16"/>
+      <c r="BI13" s="16"/>
+      <c r="BJ13" s="16"/>
+      <c r="BK13" s="16"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="16"/>
+    </row>
+    <row r="14" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>520</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="16"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="16"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="16"/>
+      <c r="BK14" s="16"/>
+      <c r="BL14" s="16"/>
+      <c r="BM14" s="16"/>
+    </row>
+    <row r="15" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>560</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="16"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="16"/>
+      <c r="BE15" s="16"/>
+      <c r="BF15" s="16"/>
+      <c r="BG15" s="16"/>
+      <c r="BH15" s="16"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="16"/>
+      <c r="BK15" s="16"/>
+      <c r="BL15" s="16"/>
+      <c r="BM15" s="16"/>
+    </row>
+    <row r="16" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>600</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="16"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="16"/>
+      <c r="BE16" s="16"/>
+      <c r="BF16" s="16"/>
+      <c r="BG16" s="16"/>
+      <c r="BH16" s="16"/>
+      <c r="BI16" s="16"/>
+      <c r="BJ16" s="16"/>
+      <c r="BK16" s="16"/>
+      <c r="BL16" s="16"/>
+      <c r="BM16" s="16"/>
+    </row>
+    <row r="17" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>640</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16"/>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="16"/>
+      <c r="BE17" s="16"/>
+      <c r="BF17" s="16"/>
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="16"/>
+      <c r="BI17" s="16"/>
+      <c r="BJ17" s="16"/>
+      <c r="BK17" s="16"/>
+      <c r="BL17" s="16"/>
+      <c r="BM17" s="16"/>
+    </row>
+    <row r="18" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>680</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="16"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="16"/>
+      <c r="BI18" s="16"/>
+      <c r="BJ18" s="16"/>
+      <c r="BK18" s="16"/>
+      <c r="BL18" s="16"/>
+      <c r="BM18" s="16"/>
+    </row>
+    <row r="19" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>720</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="16"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="16"/>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16"/>
+      <c r="AW19" s="16"/>
+      <c r="AX19" s="16"/>
+      <c r="AY19" s="16"/>
+      <c r="AZ19" s="16"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="16"/>
+      <c r="BC19" s="16"/>
+      <c r="BD19" s="16"/>
+      <c r="BE19" s="16"/>
+      <c r="BF19" s="16"/>
+      <c r="BG19" s="16"/>
+      <c r="BH19" s="16"/>
+      <c r="BI19" s="16"/>
+      <c r="BJ19" s="16"/>
+      <c r="BK19" s="16"/>
+      <c r="BL19" s="16"/>
+      <c r="BM19" s="16"/>
+    </row>
+    <row r="20" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>760</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="16"/>
+      <c r="BF20" s="16"/>
+      <c r="BG20" s="16"/>
+      <c r="BH20" s="16"/>
+      <c r="BI20" s="16"/>
+      <c r="BJ20" s="16"/>
+      <c r="BK20" s="16"/>
+      <c r="BL20" s="16"/>
+      <c r="BM20" s="16"/>
+    </row>
+    <row r="21" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>800</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="16"/>
+      <c r="AQ21" s="16"/>
+      <c r="AR21" s="16"/>
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="16"/>
+      <c r="AU21" s="16"/>
+      <c r="AV21" s="16"/>
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="16"/>
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="16"/>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="16"/>
+      <c r="BC21" s="16"/>
+      <c r="BD21" s="16"/>
+      <c r="BE21" s="16"/>
+      <c r="BF21" s="16"/>
+      <c r="BG21" s="16"/>
+      <c r="BH21" s="16"/>
+      <c r="BI21" s="16"/>
+      <c r="BJ21" s="16"/>
+      <c r="BK21" s="16"/>
+      <c r="BL21" s="16"/>
+      <c r="BM21" s="16"/>
+    </row>
+    <row r="22" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>840</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="16"/>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="16"/>
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="16"/>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="16"/>
+      <c r="BA22" s="16"/>
+      <c r="BB22" s="16"/>
+      <c r="BC22" s="16"/>
+      <c r="BD22" s="16"/>
+      <c r="BE22" s="16"/>
+      <c r="BF22" s="16"/>
+      <c r="BG22" s="16"/>
+      <c r="BH22" s="16"/>
+      <c r="BI22" s="16"/>
+      <c r="BJ22" s="16"/>
+      <c r="BK22" s="16"/>
+      <c r="BL22" s="16"/>
+      <c r="BM22" s="16"/>
+    </row>
+    <row r="23" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>880</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="16"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="16"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="16"/>
+      <c r="BA23" s="16"/>
+      <c r="BB23" s="16"/>
+      <c r="BC23" s="16"/>
+      <c r="BD23" s="16"/>
+      <c r="BE23" s="16"/>
+      <c r="BF23" s="16"/>
+      <c r="BG23" s="16"/>
+      <c r="BH23" s="16"/>
+      <c r="BI23" s="16"/>
+      <c r="BJ23" s="16"/>
+      <c r="BK23" s="16"/>
+      <c r="BL23" s="16"/>
+      <c r="BM23" s="16"/>
+    </row>
+    <row r="24" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>920</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="16"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="16"/>
+      <c r="BA24" s="16"/>
+      <c r="BB24" s="16"/>
+      <c r="BC24" s="16"/>
+      <c r="BD24" s="16"/>
+      <c r="BE24" s="16"/>
+      <c r="BF24" s="16"/>
+      <c r="BG24" s="16"/>
+      <c r="BH24" s="16"/>
+      <c r="BI24" s="16"/>
+      <c r="BJ24" s="16"/>
+      <c r="BK24" s="16"/>
+      <c r="BL24" s="16"/>
+      <c r="BM24" s="16"/>
+    </row>
+    <row r="25" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>960</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="16"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="16"/>
+      <c r="AS25" s="16"/>
+      <c r="AT25" s="16"/>
+      <c r="AU25" s="16"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="16"/>
+      <c r="AX25" s="16"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="16"/>
+      <c r="BC25" s="16"/>
+      <c r="BD25" s="16"/>
+      <c r="BE25" s="16"/>
+      <c r="BF25" s="16"/>
+      <c r="BG25" s="16"/>
+      <c r="BH25" s="16"/>
+      <c r="BI25" s="16"/>
+      <c r="BJ25" s="16"/>
+      <c r="BK25" s="16"/>
+      <c r="BL25" s="16"/>
+      <c r="BM25" s="16"/>
+    </row>
+    <row r="26" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="16"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="16"/>
+      <c r="BD26" s="16"/>
+      <c r="BE26" s="16"/>
+      <c r="BF26" s="16"/>
+      <c r="BG26" s="16"/>
+      <c r="BH26" s="16"/>
+      <c r="BI26" s="16"/>
+      <c r="BJ26" s="16"/>
+      <c r="BK26" s="16"/>
+      <c r="BL26" s="16"/>
+      <c r="BM26" s="16"/>
+    </row>
+    <row r="27" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>1040</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="16"/>
+      <c r="AQ27" s="16"/>
+      <c r="AR27" s="16"/>
+      <c r="AS27" s="16"/>
+      <c r="AT27" s="16"/>
+      <c r="AU27" s="16"/>
+      <c r="AV27" s="16"/>
+      <c r="AW27" s="16"/>
+      <c r="AX27" s="16"/>
+      <c r="AY27" s="16"/>
+      <c r="AZ27" s="16"/>
+      <c r="BA27" s="16"/>
+      <c r="BB27" s="16"/>
+      <c r="BC27" s="16"/>
+      <c r="BD27" s="16"/>
+      <c r="BE27" s="16"/>
+      <c r="BF27" s="16"/>
+      <c r="BG27" s="16"/>
+      <c r="BH27" s="16"/>
+      <c r="BI27" s="16"/>
+      <c r="BJ27" s="16"/>
+      <c r="BK27" s="16"/>
+      <c r="BL27" s="16"/>
+      <c r="BM27" s="16"/>
+    </row>
+    <row r="28" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1080</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+    </row>
+    <row r="29" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>1120</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+    </row>
+    <row r="30" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>1160</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+    </row>
+    <row r="31" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1200</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+    </row>
+    <row r="32" spans="1:65" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/布局.xlsx
+++ b/布局.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\study\BHW\RAYLIBsnake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0637BFC-70FA-433B-B0E9-0692AA25EEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56680E1E-8664-43FA-BC6C-E2A1A1D705BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="game" sheetId="1" r:id="rId1"/>
     <sheet name="over" sheetId="4" r:id="rId2"/>
     <sheet name="menu" sheetId="3" r:id="rId3"/>
     <sheet name="setconfig" sheetId="6" r:id="rId4"/>
+    <sheet name="createmap" sheetId="8" r:id="rId5"/>
+    <sheet name="createconfig" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +56,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -181,6 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5533,8 +5543,4636 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBB4368-9FC8-45DD-BD16-F6864E7B8507}">
   <dimension ref="A1:BM226"/>
   <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AN10" sqref="AG10:AN10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.9140625" style="3" customWidth="1"/>
+    <col min="2" max="61" width="4.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2">
+        <v>160</v>
+      </c>
+      <c r="F1" s="2">
+        <v>200</v>
+      </c>
+      <c r="G1" s="2">
+        <v>240</v>
+      </c>
+      <c r="H1" s="2">
+        <v>280</v>
+      </c>
+      <c r="I1" s="2">
+        <v>320</v>
+      </c>
+      <c r="J1" s="2">
+        <v>360</v>
+      </c>
+      <c r="K1" s="2">
+        <v>400</v>
+      </c>
+      <c r="L1" s="2">
+        <v>440</v>
+      </c>
+      <c r="M1" s="2">
+        <v>480</v>
+      </c>
+      <c r="N1" s="2">
+        <v>520</v>
+      </c>
+      <c r="O1" s="2">
+        <v>560</v>
+      </c>
+      <c r="P1" s="2">
+        <v>600</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>640</v>
+      </c>
+      <c r="R1" s="2">
+        <v>680</v>
+      </c>
+      <c r="S1" s="2">
+        <v>720</v>
+      </c>
+      <c r="T1" s="2">
+        <v>760</v>
+      </c>
+      <c r="U1" s="2">
+        <v>800</v>
+      </c>
+      <c r="V1" s="2">
+        <v>840</v>
+      </c>
+      <c r="W1" s="2">
+        <v>880</v>
+      </c>
+      <c r="X1" s="2">
+        <v>920</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>960</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>1040</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>1080</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>1120</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>1160</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>1240</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>1280</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>1320</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>1360</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>1400</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>1440</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>1480</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>1520</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>1560</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+    </row>
+    <row r="3" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>80</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+    </row>
+    <row r="4" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>120</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="16"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="16"/>
+      <c r="BJ4" s="16"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+    </row>
+    <row r="5" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>160</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="16"/>
+      <c r="BG5" s="16"/>
+      <c r="BH5" s="16"/>
+      <c r="BI5" s="16"/>
+      <c r="BJ5" s="16"/>
+      <c r="BK5" s="16"/>
+      <c r="BL5" s="16"/>
+      <c r="BM5" s="16"/>
+    </row>
+    <row r="6" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>200</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="16"/>
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="16"/>
+      <c r="BG6" s="16"/>
+      <c r="BH6" s="16"/>
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="16"/>
+      <c r="BK6" s="16"/>
+      <c r="BL6" s="16"/>
+      <c r="BM6" s="16"/>
+    </row>
+    <row r="7" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>240</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="16"/>
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16"/>
+      <c r="BM7" s="16"/>
+    </row>
+    <row r="8" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>280</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="16"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="16"/>
+      <c r="BM8" s="16"/>
+    </row>
+    <row r="9" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>320</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+    </row>
+    <row r="10" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>360</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+      <c r="BI10" s="16"/>
+      <c r="BJ10" s="16"/>
+      <c r="BK10" s="16"/>
+      <c r="BL10" s="16"/>
+      <c r="BM10" s="16"/>
+    </row>
+    <row r="11" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>400</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="16"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="16"/>
+      <c r="BF11" s="16"/>
+      <c r="BG11" s="16"/>
+      <c r="BH11" s="16"/>
+      <c r="BI11" s="16"/>
+      <c r="BJ11" s="16"/>
+      <c r="BK11" s="16"/>
+      <c r="BL11" s="16"/>
+      <c r="BM11" s="16"/>
+    </row>
+    <row r="12" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>440</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="16"/>
+      <c r="BG12" s="16"/>
+      <c r="BH12" s="16"/>
+      <c r="BI12" s="16"/>
+      <c r="BJ12" s="16"/>
+      <c r="BK12" s="16"/>
+      <c r="BL12" s="16"/>
+      <c r="BM12" s="16"/>
+    </row>
+    <row r="13" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>480</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="16"/>
+      <c r="BI13" s="16"/>
+      <c r="BJ13" s="16"/>
+      <c r="BK13" s="16"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="16"/>
+    </row>
+    <row r="14" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>520</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="16"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="16"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="16"/>
+      <c r="BK14" s="16"/>
+      <c r="BL14" s="16"/>
+      <c r="BM14" s="16"/>
+    </row>
+    <row r="15" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>560</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="16"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="16"/>
+      <c r="BE15" s="16"/>
+      <c r="BF15" s="16"/>
+      <c r="BG15" s="16"/>
+      <c r="BH15" s="16"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="16"/>
+      <c r="BK15" s="16"/>
+      <c r="BL15" s="16"/>
+      <c r="BM15" s="16"/>
+    </row>
+    <row r="16" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>600</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="16"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="16"/>
+      <c r="BE16" s="16"/>
+      <c r="BF16" s="16"/>
+      <c r="BG16" s="16"/>
+      <c r="BH16" s="16"/>
+      <c r="BI16" s="16"/>
+      <c r="BJ16" s="16"/>
+      <c r="BK16" s="16"/>
+      <c r="BL16" s="16"/>
+      <c r="BM16" s="16"/>
+    </row>
+    <row r="17" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>640</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16"/>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="16"/>
+      <c r="BE17" s="16"/>
+      <c r="BF17" s="16"/>
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="16"/>
+      <c r="BI17" s="16"/>
+      <c r="BJ17" s="16"/>
+      <c r="BK17" s="16"/>
+      <c r="BL17" s="16"/>
+      <c r="BM17" s="16"/>
+    </row>
+    <row r="18" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>680</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="16"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="16"/>
+      <c r="BI18" s="16"/>
+      <c r="BJ18" s="16"/>
+      <c r="BK18" s="16"/>
+      <c r="BL18" s="16"/>
+      <c r="BM18" s="16"/>
+    </row>
+    <row r="19" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>720</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="16"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="16"/>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16"/>
+      <c r="AW19" s="16"/>
+      <c r="AX19" s="16"/>
+      <c r="AY19" s="16"/>
+      <c r="AZ19" s="16"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="16"/>
+      <c r="BC19" s="16"/>
+      <c r="BD19" s="16"/>
+      <c r="BE19" s="16"/>
+      <c r="BF19" s="16"/>
+      <c r="BG19" s="16"/>
+      <c r="BH19" s="16"/>
+      <c r="BI19" s="16"/>
+      <c r="BJ19" s="16"/>
+      <c r="BK19" s="16"/>
+      <c r="BL19" s="16"/>
+      <c r="BM19" s="16"/>
+    </row>
+    <row r="20" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>760</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="16"/>
+      <c r="BF20" s="16"/>
+      <c r="BG20" s="16"/>
+      <c r="BH20" s="16"/>
+      <c r="BI20" s="16"/>
+      <c r="BJ20" s="16"/>
+      <c r="BK20" s="16"/>
+      <c r="BL20" s="16"/>
+      <c r="BM20" s="16"/>
+    </row>
+    <row r="21" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>800</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="16"/>
+      <c r="AQ21" s="16"/>
+      <c r="AR21" s="16"/>
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="16"/>
+      <c r="AU21" s="16"/>
+      <c r="AV21" s="16"/>
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="16"/>
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="16"/>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="16"/>
+      <c r="BC21" s="16"/>
+      <c r="BD21" s="16"/>
+      <c r="BE21" s="16"/>
+      <c r="BF21" s="16"/>
+      <c r="BG21" s="16"/>
+      <c r="BH21" s="16"/>
+      <c r="BI21" s="16"/>
+      <c r="BJ21" s="16"/>
+      <c r="BK21" s="16"/>
+      <c r="BL21" s="16"/>
+      <c r="BM21" s="16"/>
+    </row>
+    <row r="22" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>840</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="16"/>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="16"/>
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="16"/>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="16"/>
+      <c r="BA22" s="16"/>
+      <c r="BB22" s="16"/>
+      <c r="BC22" s="16"/>
+      <c r="BD22" s="16"/>
+      <c r="BE22" s="16"/>
+      <c r="BF22" s="16"/>
+      <c r="BG22" s="16"/>
+      <c r="BH22" s="16"/>
+      <c r="BI22" s="16"/>
+      <c r="BJ22" s="16"/>
+      <c r="BK22" s="16"/>
+      <c r="BL22" s="16"/>
+      <c r="BM22" s="16"/>
+    </row>
+    <row r="23" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>880</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="16"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="16"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="16"/>
+      <c r="BA23" s="16"/>
+      <c r="BB23" s="16"/>
+      <c r="BC23" s="16"/>
+      <c r="BD23" s="16"/>
+      <c r="BE23" s="16"/>
+      <c r="BF23" s="16"/>
+      <c r="BG23" s="16"/>
+      <c r="BH23" s="16"/>
+      <c r="BI23" s="16"/>
+      <c r="BJ23" s="16"/>
+      <c r="BK23" s="16"/>
+      <c r="BL23" s="16"/>
+      <c r="BM23" s="16"/>
+    </row>
+    <row r="24" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>920</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="16"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="16"/>
+      <c r="BA24" s="16"/>
+      <c r="BB24" s="16"/>
+      <c r="BC24" s="16"/>
+      <c r="BD24" s="16"/>
+      <c r="BE24" s="16"/>
+      <c r="BF24" s="16"/>
+      <c r="BG24" s="16"/>
+      <c r="BH24" s="16"/>
+      <c r="BI24" s="16"/>
+      <c r="BJ24" s="16"/>
+      <c r="BK24" s="16"/>
+      <c r="BL24" s="16"/>
+      <c r="BM24" s="16"/>
+    </row>
+    <row r="25" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>960</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="16"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="16"/>
+      <c r="AS25" s="16"/>
+      <c r="AT25" s="16"/>
+      <c r="AU25" s="16"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="16"/>
+      <c r="AX25" s="16"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="16"/>
+      <c r="BC25" s="16"/>
+      <c r="BD25" s="16"/>
+      <c r="BE25" s="16"/>
+      <c r="BF25" s="16"/>
+      <c r="BG25" s="16"/>
+      <c r="BH25" s="16"/>
+      <c r="BI25" s="16"/>
+      <c r="BJ25" s="16"/>
+      <c r="BK25" s="16"/>
+      <c r="BL25" s="16"/>
+      <c r="BM25" s="16"/>
+    </row>
+    <row r="26" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="16"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="16"/>
+      <c r="BD26" s="16"/>
+      <c r="BE26" s="16"/>
+      <c r="BF26" s="16"/>
+      <c r="BG26" s="16"/>
+      <c r="BH26" s="16"/>
+      <c r="BI26" s="16"/>
+      <c r="BJ26" s="16"/>
+      <c r="BK26" s="16"/>
+      <c r="BL26" s="16"/>
+      <c r="BM26" s="16"/>
+    </row>
+    <row r="27" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>1040</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="16"/>
+      <c r="AQ27" s="16"/>
+      <c r="AR27" s="16"/>
+      <c r="AS27" s="16"/>
+      <c r="AT27" s="16"/>
+      <c r="AU27" s="16"/>
+      <c r="AV27" s="16"/>
+      <c r="AW27" s="16"/>
+      <c r="AX27" s="16"/>
+      <c r="AY27" s="16"/>
+      <c r="AZ27" s="16"/>
+      <c r="BA27" s="16"/>
+      <c r="BB27" s="16"/>
+      <c r="BC27" s="16"/>
+      <c r="BD27" s="16"/>
+      <c r="BE27" s="16"/>
+      <c r="BF27" s="16"/>
+      <c r="BG27" s="16"/>
+      <c r="BH27" s="16"/>
+      <c r="BI27" s="16"/>
+      <c r="BJ27" s="16"/>
+      <c r="BK27" s="16"/>
+      <c r="BL27" s="16"/>
+      <c r="BM27" s="16"/>
+    </row>
+    <row r="28" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1080</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+    </row>
+    <row r="29" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>1120</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+    </row>
+    <row r="30" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>1160</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+    </row>
+    <row r="31" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1200</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+    </row>
+    <row r="32" spans="1:65" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5734AB6-FFB9-4865-AA9D-E75F864B3446}">
+  <dimension ref="A1:BM226"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AN10" sqref="AG10:AN10"/>
+      <selection activeCell="AE20" sqref="AE20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.9140625" style="3" customWidth="1"/>
+    <col min="2" max="61" width="4.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2">
+        <v>160</v>
+      </c>
+      <c r="F1" s="2">
+        <v>200</v>
+      </c>
+      <c r="G1" s="2">
+        <v>240</v>
+      </c>
+      <c r="H1" s="2">
+        <v>280</v>
+      </c>
+      <c r="I1" s="2">
+        <v>320</v>
+      </c>
+      <c r="J1" s="2">
+        <v>360</v>
+      </c>
+      <c r="K1" s="2">
+        <v>400</v>
+      </c>
+      <c r="L1" s="2">
+        <v>440</v>
+      </c>
+      <c r="M1" s="2">
+        <v>480</v>
+      </c>
+      <c r="N1" s="2">
+        <v>520</v>
+      </c>
+      <c r="O1" s="2">
+        <v>560</v>
+      </c>
+      <c r="P1" s="2">
+        <v>600</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>640</v>
+      </c>
+      <c r="R1" s="2">
+        <v>680</v>
+      </c>
+      <c r="S1" s="2">
+        <v>720</v>
+      </c>
+      <c r="T1" s="2">
+        <v>760</v>
+      </c>
+      <c r="U1" s="2">
+        <v>800</v>
+      </c>
+      <c r="V1" s="2">
+        <v>840</v>
+      </c>
+      <c r="W1" s="2">
+        <v>880</v>
+      </c>
+      <c r="X1" s="2">
+        <v>920</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>960</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>1040</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>1080</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>1120</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>1160</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>1240</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>1280</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>1320</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>1360</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>1400</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>1440</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>1480</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>1520</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>1560</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+    </row>
+    <row r="3" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>80</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+    </row>
+    <row r="4" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>120</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="16"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="16"/>
+      <c r="BJ4" s="16"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+    </row>
+    <row r="5" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>160</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="16"/>
+      <c r="BG5" s="16"/>
+      <c r="BH5" s="16"/>
+      <c r="BI5" s="16"/>
+      <c r="BJ5" s="16"/>
+      <c r="BK5" s="16"/>
+      <c r="BL5" s="16"/>
+      <c r="BM5" s="16"/>
+    </row>
+    <row r="6" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>200</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="16"/>
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="16"/>
+      <c r="BG6" s="16"/>
+      <c r="BH6" s="16"/>
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="16"/>
+      <c r="BK6" s="16"/>
+      <c r="BL6" s="16"/>
+      <c r="BM6" s="16"/>
+    </row>
+    <row r="7" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>240</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="16"/>
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16"/>
+      <c r="BM7" s="16"/>
+    </row>
+    <row r="8" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>280</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="16"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="16"/>
+      <c r="BM8" s="16"/>
+    </row>
+    <row r="9" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>320</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+    </row>
+    <row r="10" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>360</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+      <c r="BI10" s="16"/>
+      <c r="BJ10" s="16"/>
+      <c r="BK10" s="16"/>
+      <c r="BL10" s="16"/>
+      <c r="BM10" s="16"/>
+    </row>
+    <row r="11" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>400</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="16"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="16"/>
+      <c r="BF11" s="16"/>
+      <c r="BG11" s="16"/>
+      <c r="BH11" s="16"/>
+      <c r="BI11" s="16"/>
+      <c r="BJ11" s="16"/>
+      <c r="BK11" s="16"/>
+      <c r="BL11" s="16"/>
+      <c r="BM11" s="16"/>
+    </row>
+    <row r="12" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>440</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="16"/>
+      <c r="BG12" s="16"/>
+      <c r="BH12" s="16"/>
+      <c r="BI12" s="16"/>
+      <c r="BJ12" s="16"/>
+      <c r="BK12" s="16"/>
+      <c r="BL12" s="16"/>
+      <c r="BM12" s="16"/>
+    </row>
+    <row r="13" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>480</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="16"/>
+      <c r="BI13" s="16"/>
+      <c r="BJ13" s="16"/>
+      <c r="BK13" s="16"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="16"/>
+    </row>
+    <row r="14" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>520</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="16"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="16"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="16"/>
+      <c r="BK14" s="16"/>
+      <c r="BL14" s="16"/>
+      <c r="BM14" s="16"/>
+    </row>
+    <row r="15" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>560</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="16"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="16"/>
+      <c r="BE15" s="16"/>
+      <c r="BF15" s="16"/>
+      <c r="BG15" s="16"/>
+      <c r="BH15" s="16"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="16"/>
+      <c r="BK15" s="16"/>
+      <c r="BL15" s="16"/>
+      <c r="BM15" s="16"/>
+    </row>
+    <row r="16" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>600</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="16"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="16"/>
+      <c r="BE16" s="16"/>
+      <c r="BF16" s="16"/>
+      <c r="BG16" s="16"/>
+      <c r="BH16" s="16"/>
+      <c r="BI16" s="16"/>
+      <c r="BJ16" s="16"/>
+      <c r="BK16" s="16"/>
+      <c r="BL16" s="16"/>
+      <c r="BM16" s="16"/>
+    </row>
+    <row r="17" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>640</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16"/>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="16"/>
+      <c r="BE17" s="16"/>
+      <c r="BF17" s="16"/>
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="16"/>
+      <c r="BI17" s="16"/>
+      <c r="BJ17" s="16"/>
+      <c r="BK17" s="16"/>
+      <c r="BL17" s="16"/>
+      <c r="BM17" s="16"/>
+    </row>
+    <row r="18" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>680</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="16"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="16"/>
+      <c r="BI18" s="16"/>
+      <c r="BJ18" s="16"/>
+      <c r="BK18" s="16"/>
+      <c r="BL18" s="16"/>
+      <c r="BM18" s="16"/>
+    </row>
+    <row r="19" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>720</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="16"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="16"/>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16"/>
+      <c r="AW19" s="16"/>
+      <c r="AX19" s="16"/>
+      <c r="AY19" s="16"/>
+      <c r="AZ19" s="16"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="16"/>
+      <c r="BC19" s="16"/>
+      <c r="BD19" s="16"/>
+      <c r="BE19" s="16"/>
+      <c r="BF19" s="16"/>
+      <c r="BG19" s="16"/>
+      <c r="BH19" s="16"/>
+      <c r="BI19" s="16"/>
+      <c r="BJ19" s="16"/>
+      <c r="BK19" s="16"/>
+      <c r="BL19" s="16"/>
+      <c r="BM19" s="16"/>
+    </row>
+    <row r="20" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>760</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="16"/>
+      <c r="BF20" s="16"/>
+      <c r="BG20" s="16"/>
+      <c r="BH20" s="16"/>
+      <c r="BI20" s="16"/>
+      <c r="BJ20" s="16"/>
+      <c r="BK20" s="16"/>
+      <c r="BL20" s="16"/>
+      <c r="BM20" s="16"/>
+    </row>
+    <row r="21" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>800</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="16"/>
+      <c r="AQ21" s="16"/>
+      <c r="AR21" s="16"/>
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="16"/>
+      <c r="AU21" s="16"/>
+      <c r="AV21" s="16"/>
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="16"/>
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="16"/>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="16"/>
+      <c r="BC21" s="16"/>
+      <c r="BD21" s="16"/>
+      <c r="BE21" s="16"/>
+      <c r="BF21" s="16"/>
+      <c r="BG21" s="16"/>
+      <c r="BH21" s="16"/>
+      <c r="BI21" s="16"/>
+      <c r="BJ21" s="16"/>
+      <c r="BK21" s="16"/>
+      <c r="BL21" s="16"/>
+      <c r="BM21" s="16"/>
+    </row>
+    <row r="22" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>840</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="16"/>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="16"/>
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="16"/>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="16"/>
+      <c r="BA22" s="16"/>
+      <c r="BB22" s="16"/>
+      <c r="BC22" s="16"/>
+      <c r="BD22" s="16"/>
+      <c r="BE22" s="16"/>
+      <c r="BF22" s="16"/>
+      <c r="BG22" s="16"/>
+      <c r="BH22" s="16"/>
+      <c r="BI22" s="16"/>
+      <c r="BJ22" s="16"/>
+      <c r="BK22" s="16"/>
+      <c r="BL22" s="16"/>
+      <c r="BM22" s="16"/>
+    </row>
+    <row r="23" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>880</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="16"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="16"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="16"/>
+      <c r="BA23" s="16"/>
+      <c r="BB23" s="16"/>
+      <c r="BC23" s="16"/>
+      <c r="BD23" s="16"/>
+      <c r="BE23" s="16"/>
+      <c r="BF23" s="16"/>
+      <c r="BG23" s="16"/>
+      <c r="BH23" s="16"/>
+      <c r="BI23" s="16"/>
+      <c r="BJ23" s="16"/>
+      <c r="BK23" s="16"/>
+      <c r="BL23" s="16"/>
+      <c r="BM23" s="16"/>
+    </row>
+    <row r="24" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>920</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="16"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="16"/>
+      <c r="BA24" s="16"/>
+      <c r="BB24" s="16"/>
+      <c r="BC24" s="16"/>
+      <c r="BD24" s="16"/>
+      <c r="BE24" s="16"/>
+      <c r="BF24" s="16"/>
+      <c r="BG24" s="16"/>
+      <c r="BH24" s="16"/>
+      <c r="BI24" s="16"/>
+      <c r="BJ24" s="16"/>
+      <c r="BK24" s="16"/>
+      <c r="BL24" s="16"/>
+      <c r="BM24" s="16"/>
+    </row>
+    <row r="25" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>960</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="16"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="16"/>
+      <c r="AS25" s="16"/>
+      <c r="AT25" s="16"/>
+      <c r="AU25" s="16"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="16"/>
+      <c r="AX25" s="16"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="16"/>
+      <c r="BC25" s="16"/>
+      <c r="BD25" s="16"/>
+      <c r="BE25" s="16"/>
+      <c r="BF25" s="16"/>
+      <c r="BG25" s="16"/>
+      <c r="BH25" s="16"/>
+      <c r="BI25" s="16"/>
+      <c r="BJ25" s="16"/>
+      <c r="BK25" s="16"/>
+      <c r="BL25" s="16"/>
+      <c r="BM25" s="16"/>
+    </row>
+    <row r="26" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="16"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="16"/>
+      <c r="BD26" s="16"/>
+      <c r="BE26" s="16"/>
+      <c r="BF26" s="16"/>
+      <c r="BG26" s="16"/>
+      <c r="BH26" s="16"/>
+      <c r="BI26" s="16"/>
+      <c r="BJ26" s="16"/>
+      <c r="BK26" s="16"/>
+      <c r="BL26" s="16"/>
+      <c r="BM26" s="16"/>
+    </row>
+    <row r="27" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>1040</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="16"/>
+      <c r="AQ27" s="16"/>
+      <c r="AR27" s="16"/>
+      <c r="AS27" s="16"/>
+      <c r="AT27" s="16"/>
+      <c r="AU27" s="16"/>
+      <c r="AV27" s="16"/>
+      <c r="AW27" s="16"/>
+      <c r="AX27" s="16"/>
+      <c r="AY27" s="16"/>
+      <c r="AZ27" s="16"/>
+      <c r="BA27" s="16"/>
+      <c r="BB27" s="16"/>
+      <c r="BC27" s="16"/>
+      <c r="BD27" s="16"/>
+      <c r="BE27" s="16"/>
+      <c r="BF27" s="16"/>
+      <c r="BG27" s="16"/>
+      <c r="BH27" s="16"/>
+      <c r="BI27" s="16"/>
+      <c r="BJ27" s="16"/>
+      <c r="BK27" s="16"/>
+      <c r="BL27" s="16"/>
+      <c r="BM27" s="16"/>
+    </row>
+    <row r="28" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1080</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+    </row>
+    <row r="29" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>1120</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+    </row>
+    <row r="30" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>1160</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+    </row>
+    <row r="31" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1200</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+    </row>
+    <row r="32" spans="1:65" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114D31DB-C735-46A2-BFA2-455A8914D25E}">
+  <dimension ref="A1:BM226"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/布局.xlsx
+++ b/布局.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\study\BHW\RAYLIBsnake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56680E1E-8664-43FA-BC6C-E2A1A1D705BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAF6101-E372-42E4-8872-CEB687E5B1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +135,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -163,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -191,6 +203,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7857,8 +7873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5734AB6-FFB9-4865-AA9D-E75F864B3446}">
   <dimension ref="A1:BM226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8229,14 +8245,14 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
@@ -8298,14 +8314,14 @@
       <c r="Y6" s="22"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
@@ -8367,20 +8383,20 @@
       <c r="Y7" s="20"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="11"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="24"/>
       <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
       <c r="AK7" s="11"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
       <c r="AP7" s="16"/>
       <c r="AQ7" s="16"/>
       <c r="AR7" s="16"/>
@@ -8436,20 +8452,20 @@
       <c r="Y8" s="20"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="24"/>
       <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
       <c r="AK8" s="11"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
       <c r="AP8" s="16"/>
       <c r="AQ8" s="16"/>
       <c r="AR8" s="16"/>
@@ -8505,20 +8521,20 @@
       <c r="Y9" s="20"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="11"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="24"/>
       <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
       <c r="AK9" s="11"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
       <c r="AR9" s="16"/>
@@ -8579,14 +8595,14 @@
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
       <c r="AO10" s="10"/>
       <c r="AP10" s="16"/>
       <c r="AQ10" s="16"/>
@@ -8643,20 +8659,20 @@
       <c r="Y11" s="20"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
       <c r="AF11" s="10"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="10"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
       <c r="AP11" s="16"/>
       <c r="AQ11" s="16"/>
       <c r="AR11" s="16"/>
@@ -8712,20 +8728,20 @@
       <c r="Y12" s="20"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
       <c r="AF12" s="10"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="10"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
       <c r="AP12" s="16"/>
       <c r="AQ12" s="16"/>
       <c r="AR12" s="16"/>
@@ -8781,20 +8797,20 @@
       <c r="Y13" s="20"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
       <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
       <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
       <c r="AP13" s="16"/>
       <c r="AQ13" s="16"/>
       <c r="AR13" s="16"/>
@@ -8919,19 +8935,19 @@
       <c r="Y15" s="20"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
       <c r="AO15" s="10"/>
       <c r="AP15" s="16"/>
       <c r="AQ15" s="16"/>
@@ -8988,19 +9004,19 @@
       <c r="Y16" s="20"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
       <c r="AO16" s="10"/>
       <c r="AP16" s="16"/>
       <c r="AQ16" s="16"/>
@@ -9057,19 +9073,19 @@
       <c r="Y17" s="20"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
       <c r="AO17" s="10"/>
       <c r="AP17" s="16"/>
       <c r="AQ17" s="16"/>
@@ -9267,7 +9283,6 @@
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
@@ -9336,15 +9351,15 @@
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
       <c r="AN21" s="10"/>
       <c r="AO21" s="10"/>
       <c r="AP21" s="16"/>
@@ -9405,15 +9420,15 @@
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
       <c r="AN22" s="10"/>
       <c r="AO22" s="10"/>
       <c r="AP22" s="16"/>
@@ -9474,15 +9489,15 @@
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
       <c r="AN23" s="10"/>
       <c r="AO23" s="10"/>
       <c r="AP23" s="16"/>
@@ -9543,15 +9558,15 @@
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="10"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
       <c r="AN24" s="10"/>
       <c r="AO24" s="10"/>
       <c r="AP24" s="16"/>
@@ -9681,15 +9696,15 @@
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="12"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
       <c r="AN26" s="12"/>
       <c r="AO26" s="10"/>
       <c r="AP26" s="16"/>
@@ -9746,19 +9761,19 @@
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="18"/>
-      <c r="AM27" s="12"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
       <c r="AN27" s="12"/>
       <c r="AO27" s="10"/>
       <c r="AP27" s="16"/>
@@ -9815,19 +9830,19 @@
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
       <c r="AN28" s="10"/>
       <c r="AO28" s="10"/>
     </row>
@@ -9860,20 +9875,20 @@
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="10"/>
       <c r="AO29" s="1"/>
     </row>
     <row r="30" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9905,20 +9920,20 @@
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
       <c r="AO30" s="1"/>
     </row>
     <row r="31" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9950,20 +9965,20 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
       <c r="AO31" s="1"/>
     </row>
     <row r="32" spans="1:65" ht="34" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/布局.xlsx
+++ b/布局.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\study\BHW\RAYLIBsnake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAF6101-E372-42E4-8872-CEB687E5B1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EFB247-53A8-49F1-AC15-526296B9AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="game" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事物数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +80,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -207,6 +231,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7873,7 +7898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5734AB6-FFB9-4865-AA9D-E75F864B3446}">
   <dimension ref="A1:BM226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
@@ -10186,8 +10211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114D31DB-C735-46A2-BFA2-455A8914D25E}">
   <dimension ref="A1:BM226"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10607,28 +10632,30 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
+      <c r="H6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
@@ -10814,28 +10841,28 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="11"/>
       <c r="AF9" s="11"/>
@@ -10883,7 +10910,9 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -10908,14 +10937,14 @@
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
       <c r="AO10" s="10"/>
       <c r="AP10" s="16"/>
       <c r="AQ10" s="16"/>
@@ -10977,14 +11006,14 @@
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
       <c r="AO11" s="10"/>
       <c r="AP11" s="16"/>
       <c r="AQ11" s="16"/>
@@ -11046,14 +11075,14 @@
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
       <c r="AO12" s="10"/>
       <c r="AP12" s="16"/>
       <c r="AQ12" s="16"/>
@@ -11090,28 +11119,28 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
@@ -11159,7 +11188,9 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="20"/>
+      <c r="H14" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
@@ -11253,14 +11284,14 @@
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
       <c r="AO15" s="10"/>
       <c r="AP15" s="16"/>
       <c r="AQ15" s="16"/>
@@ -11297,39 +11328,39 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
       <c r="AO16" s="10"/>
       <c r="AP16" s="16"/>
       <c r="AQ16" s="16"/>
@@ -11366,39 +11397,39 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
       <c r="AO17" s="10"/>
       <c r="AP17" s="16"/>
       <c r="AQ17" s="16"/>
@@ -11441,24 +11472,24 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
@@ -11504,30 +11535,30 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
@@ -11573,30 +11604,30 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
@@ -11642,28 +11673,28 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
@@ -11711,29 +11742,29 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
@@ -11780,29 +11811,29 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
       <c r="AG23" s="10"/>
@@ -11849,29 +11880,29 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
       <c r="AG24" s="10"/>
@@ -11932,23 +11963,23 @@
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
       <c r="AM25" s="10"/>
       <c r="AN25" s="10"/>
       <c r="AO25" s="10"/>
@@ -12001,23 +12032,23 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
       <c r="AM26" s="12"/>
       <c r="AN26" s="12"/>
       <c r="AO26" s="10"/>
@@ -12056,13 +12087,13 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
@@ -12070,23 +12101,23 @@
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="18"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
       <c r="AM27" s="12"/>
       <c r="AN27" s="12"/>
       <c r="AO27" s="10"/>
@@ -12125,13 +12156,13 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -12139,23 +12170,23 @@
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
       <c r="AM28" s="10"/>
       <c r="AN28" s="10"/>
       <c r="AO28" s="10"/>
@@ -12170,13 +12201,13 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -12188,13 +12219,13 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>

--- a/布局.xlsx
+++ b/布局.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\study\BHW\RAYLIBsnake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EFB247-53A8-49F1-AC15-526296B9AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D671E1-58A4-4C3C-BDC3-16FA0564BF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="game" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,6 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7898,8 +7899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5734AB6-FFB9-4865-AA9D-E75F864B3446}">
   <dimension ref="A1:BM226"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE26" sqref="AE26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9761,14 +9762,14 @@
       <c r="A27" s="3">
         <v>1040</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -9830,14 +9831,14 @@
       <c r="A28" s="3">
         <v>1080</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -9878,24 +9879,24 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="10"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
@@ -9923,24 +9924,24 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="10"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
@@ -10211,7 +10212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114D31DB-C735-46A2-BFA2-455A8914D25E}">
   <dimension ref="A1:BM226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>

--- a/布局.xlsx
+++ b/布局.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\study\BHW\RAYLIBsnake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D671E1-58A4-4C3C-BDC3-16FA0564BF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA6F474-2B2E-4200-8E12-17C552DA5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="game" sheetId="1" r:id="rId1"/>
@@ -2205,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68335188-50A9-4EBD-AC6A-D97222079D21}">
   <dimension ref="A1:AO226"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB21:AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3212,20 +3212,20 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
@@ -3257,20 +3257,20 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
@@ -3302,20 +3302,20 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
@@ -3347,20 +3347,20 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
@@ -3392,20 +3392,20 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
@@ -7899,7 +7899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5734AB6-FFB9-4865-AA9D-E75F864B3446}">
   <dimension ref="A1:BM226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -10212,7 +10212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114D31DB-C735-46A2-BFA2-455A8914D25E}">
   <dimension ref="A1:BM226"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
